--- a/error_analysis_results_sopalign.xlsx
+++ b/error_analysis_results_sopalign.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukev\Documents\SOPalign_repo\SOPlijner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB02905-08C3-4B47-8D05-BD23FF9934D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3FE2A7-5AA4-491F-9E4F-1BCB81035C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{70D0BE6E-C648-47E2-BE01-B78C6F84B69A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{70D0BE6E-C648-47E2-BE01-B78C6F84B69A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="EA results" sheetId="1" r:id="rId1"/>
+    <sheet name="Performance comparison" sheetId="2" r:id="rId2"/>
+    <sheet name="Error types" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,12 +38,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
   <si>
     <t>total</t>
   </si>
   <si>
-    <t>DOCID</t>
+    <t>NLI:</t>
+  </si>
+  <si>
+    <t>STS:</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>conform</t>
+  </si>
+  <si>
+    <t>neutraal</t>
+  </si>
+  <si>
+    <t>niet conform</t>
+  </si>
+  <si>
+    <t>SOPalign:</t>
+  </si>
+  <si>
+    <t>Friso:</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F1-score</t>
+  </si>
+  <si>
+    <t>DOC_ID</t>
+  </si>
+  <si>
+    <t>Aanvraagformulier</t>
+  </si>
+  <si>
+    <t>Folder MRSA</t>
+  </si>
+  <si>
+    <t>Strikte Isolatie</t>
+  </si>
+  <si>
+    <t>Bijlage MRSA</t>
+  </si>
+  <si>
+    <t>Communicate email</t>
+  </si>
+  <si>
+    <t>Bloedafname RLD</t>
+  </si>
+  <si>
+    <t>true label: | prediction:</t>
+  </si>
+  <si>
+    <t>Infectie bij werknemers</t>
+  </si>
+  <si>
+    <t>Contactisolatie</t>
+  </si>
+  <si>
+    <t>MRSA/BRMO voorkomen verspreiding</t>
+  </si>
+  <si>
+    <t>JCI handboek</t>
+  </si>
+  <si>
+    <t>Instructieafspraken bacteriologie</t>
+  </si>
+  <si>
+    <t>Isolatiebeleid</t>
+  </si>
+  <si>
+    <t>MICU reader</t>
+  </si>
+  <si>
+    <t>Inwerkprogramma</t>
+  </si>
+  <si>
+    <t>Bijlage Contactonderzoek</t>
+  </si>
+  <si>
+    <t>Nr. Annotations</t>
+  </si>
+  <si>
+    <t>1 (no annotations)</t>
   </si>
 </sst>
 </file>
@@ -77,8 +172,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -94,6 +190,5227 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SOPalign</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'EA results'!$D$39:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31952662721893493</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2696629213483146</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28571428571428575</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4444444444444439E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.21276595744680848</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.28571428571428564</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.31067961165048541</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.27687296416938112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-94DA-4A61-BC9A-BA460E85E2D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Friso</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'EA results'!$J$39:$J$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.11764705882352941</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8965517241379296E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.339622641509434</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.34042553191489361</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.407407407407407E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.18181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.1666666666666671E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16806722689075632</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-94DA-4A61-BC9A-BA460E85E2D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1007182639"/>
+        <c:axId val="1007180719"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1007182639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Documents</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> sorted by number of annotations</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1007180719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1007180719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>F1-score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1007182639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SOPalign</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Performance comparison'!$A$3:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Performance comparison'!$D$3:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.31952662721893493</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31067961165048541</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2696629213483146</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4444444444444439E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21276595744680848</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28571428571428564</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28571428571428575</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-47D0-4CF5-9EE1-6A96E7A46B1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Friso</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Performance comparison'!$A$3:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Performance comparison'!$J$3:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>6.8965517241379296E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1666666666666671E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34042553191489361</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.407407407407407E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.339622641509434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11764705882352941</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-47D0-4CF5-9EE1-6A96E7A46B1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1007182639"/>
+        <c:axId val="1007180719"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1007182639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Documents results</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> comparison</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1007180719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1007180719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>F1-score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1007182639"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SOPalign</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Performance comparison'!$H$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F1-score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Performance comparison'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.25679758308157102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30035335689045939</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27687296416938112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4889-443D-B60E-9CE29A8F638C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Friso</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Performance comparison'!$H$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F1-score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Performance comparison'!$H$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.49180327868852458</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10135135135135136</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16806722689075632</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4889-443D-B60E-9CE29A8F638C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1011582095"/>
+        <c:axId val="1011583055"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1011582095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="97000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011583055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="50"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1011583055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011582095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>False Positives</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> error types</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Error types'!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Error types'!$B$17:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>156</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-111C-4461-8503-6D2C20D4268E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1114045295"/>
+        <c:axId val="1114043855"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1114045295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1114043855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1114043855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1114045295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>False Negatives</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> error types</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Error types'!$E$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Error types'!$E$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F72A-4CFB-89B9-7516FB06BB14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1102188703"/>
+        <c:axId val="1102188223"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1102188703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1102188223"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1102188223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1102188703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1196340</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC3D06C5-80F1-62C5-7A57-52F2AFC3C4D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{806AC149-064F-4F22-8DED-38A2CF0D9CF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82B5C058-4685-67B0-F18E-CC5EFAA38764}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48729B46-5671-5084-1698-0F2B5D7116F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B588BFE1-2DFC-FB59-5C16-52B748B18145}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -393,17 +5710,2606 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61882E4-1BE7-461B-A3CC-858005480773}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:T111"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" customWidth="1"/>
+    <col min="18" max="18" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D1">
+        <v>1.2</v>
+      </c>
+      <c r="E1">
+        <v>1.3</v>
+      </c>
+      <c r="F1">
+        <v>2.1</v>
+      </c>
+      <c r="G1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I1">
+        <v>2.4</v>
+      </c>
+      <c r="J1">
+        <v>2.5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1">
+        <v>3.1</v>
+      </c>
+      <c r="P1">
+        <v>3.2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>47</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>32</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>19</v>
+      </c>
+      <c r="P4">
+        <v>32</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>9</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>29</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>6</v>
+      </c>
+      <c r="O7">
+        <v>26</v>
+      </c>
+      <c r="P7">
+        <v>16</v>
+      </c>
+      <c r="S7">
+        <v>6</v>
+      </c>
+      <c r="T7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>7</v>
+      </c>
+      <c r="T8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>8</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>8</v>
+      </c>
+      <c r="T9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>24</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <v>9</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>8</v>
+      </c>
+      <c r="S10">
+        <v>9</v>
+      </c>
+      <c r="T10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>10</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>10</v>
+      </c>
+      <c r="T11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>11</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>7</v>
+      </c>
+      <c r="S12">
+        <v>11</v>
+      </c>
+      <c r="T12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>12</v>
+      </c>
+      <c r="N13">
+        <v>12</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>14</v>
+      </c>
+      <c r="S13">
+        <v>12</v>
+      </c>
+      <c r="T13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>13</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+      <c r="S14">
+        <v>13</v>
+      </c>
+      <c r="T14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>14</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>6</v>
+      </c>
+      <c r="S15">
+        <v>14</v>
+      </c>
+      <c r="T15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>27</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>7</v>
+      </c>
+      <c r="N16">
+        <v>15</v>
+      </c>
+      <c r="O16">
+        <v>14</v>
+      </c>
+      <c r="P16">
+        <v>19</v>
+      </c>
+      <c r="S16">
+        <v>15</v>
+      </c>
+      <c r="T16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:J17" si="0">SUM(C2:C16)</f>
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="N17" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f>SUM(O2:O16)</f>
+        <v>76</v>
+      </c>
+      <c r="P17">
+        <f>SUM(P2:P16)</f>
+        <v>121</v>
+      </c>
+      <c r="Q17">
+        <f>P17+O17</f>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <f>SUM(C2:E2)</f>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f>SUM(F2:J2)</f>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" t="s">
+        <v>7</v>
+      </c>
+      <c r="P20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:C34" si="1">SUM(C3:E3)</f>
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <f>SUM(F3:J3)</f>
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>15</v>
+      </c>
+      <c r="M21" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21">
+        <v>90</v>
+      </c>
+      <c r="O21">
+        <v>6</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <f>SUM(C4:E4)</f>
+        <v>69</v>
+      </c>
+      <c r="D22">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <f>SUM(F4:J4)</f>
+        <v>46</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>80</v>
+      </c>
+      <c r="M22" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22">
+        <v>159</v>
+      </c>
+      <c r="O22">
+        <v>41</v>
+      </c>
+      <c r="P22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E22:E34" si="2">SUM(F5:J5)</f>
+        <v>19</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>15</v>
+      </c>
+      <c r="J23">
+        <v>9</v>
+      </c>
+      <c r="K23">
+        <v>20</v>
+      </c>
+      <c r="M23" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>7</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>11</v>
+      </c>
+      <c r="N25">
+        <f>N22+N23+O23+O21+P21+P22</f>
+        <v>197</v>
+      </c>
+      <c r="O25">
+        <f>N25+N21+O22+P23</f>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <f>SUM(C8:E8)</f>
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <f>SUM(C10:E10)</f>
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="H28">
+        <v>9</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>8</v>
+      </c>
+      <c r="K28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f>SUM(F11:J11)</f>
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H30">
+        <v>11</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="H31">
+        <v>12</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H32">
+        <v>13</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <f>SUM(F15:J15)</f>
+        <v>13</v>
+      </c>
+      <c r="H33">
+        <v>14</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="D34">
+        <v>16</v>
+      </c>
+      <c r="E34">
+        <f>SUM(F16:J16)</f>
+        <v>26</v>
+      </c>
+      <c r="H34">
+        <v>15</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <f>SUM(C20:C34)</f>
+        <v>246</v>
+      </c>
+      <c r="D35">
+        <f>SUM(D20:D34)</f>
+        <v>85</v>
+      </c>
+      <c r="E35">
+        <f>SUM(E20:E34)</f>
+        <v>198</v>
+      </c>
+      <c r="H35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f>SUM(I20:I34)</f>
+        <v>31</v>
+      </c>
+      <c r="J35">
+        <f>SUM(J20:J34)</f>
+        <v>30</v>
+      </c>
+      <c r="K35">
+        <f>SUM(K20:K34)</f>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <f>D21/(D21+C21)</f>
+        <v>0.7</v>
+      </c>
+      <c r="C39">
+        <f>D21/(D21+E21)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D39">
+        <f>(2*B39*C39)/(B39+C39)</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E39">
+        <f>C21+D21+E21</f>
+        <v>17</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <f>J21/(J21+I21)</f>
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <f>J21/(J21+K21)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="J39">
+        <f>(2*H39*I39)/(H39+I39)</f>
+        <v>0.11764705882352941</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <f>D22/(D22+C22)</f>
+        <v>0.28125</v>
+      </c>
+      <c r="C40">
+        <f>D22/(D22+E22)</f>
+        <v>0.36986301369863012</v>
+      </c>
+      <c r="D40">
+        <f>(2*B40*C40)/(B40+C40)</f>
+        <v>0.31952662721893493</v>
+      </c>
+      <c r="E40">
+        <f>C22+D22+E22</f>
+        <v>142</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <f>J22/(J22+I22)</f>
+        <v>0.75</v>
+      </c>
+      <c r="I40">
+        <f>J22/(J22+K22)</f>
+        <v>3.614457831325301E-2</v>
+      </c>
+      <c r="J40">
+        <f>(2*H40*I40)/(H40+I40)</f>
+        <v>6.8965517241379296E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <f>D23/(D23+C23)</f>
+        <v>0.38095238095238093</v>
+      </c>
+      <c r="C41">
+        <f>D23/(D23+E23)</f>
+        <v>0.29629629629629628</v>
+      </c>
+      <c r="D41">
+        <f>(2*B41*C41)/(B41+C41)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E41">
+        <f>C23+D23+E23</f>
+        <v>40</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <f>J23/(J23+I23)</f>
+        <v>0.375</v>
+      </c>
+      <c r="I41">
+        <f>J23/(J23+K23)</f>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="J41">
+        <f>(2*H41*I41)/(H41+I41)</f>
+        <v>0.339622641509434</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <f>D24/(D24+E24)</f>
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f>C24+D24+E24</f>
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f>J24/(J24+K24)</f>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <f>D25/(D25+C25)</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="C43">
+        <f>D25/(D25+E25)</f>
+        <v>0.52173913043478259</v>
+      </c>
+      <c r="D43">
+        <f>(2*B43*C43)/(B43+C43)</f>
+        <v>0.2696629213483146</v>
+      </c>
+      <c r="E43">
+        <f>C25+D25+E25</f>
+        <v>77</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
+      </c>
+      <c r="H43">
+        <f>J25/(J25+I25)</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I43">
+        <f>J25/(J25+K25)</f>
+        <v>0.3125</v>
+      </c>
+      <c r="J43">
+        <f>(2*H43*I43)/(H43+I43)</f>
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <f>D26/(D26+C26)</f>
+        <v>0.2</v>
+      </c>
+      <c r="C44">
+        <f>D26/(D26+E26)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D44">
+        <f>(2*B44*C44)/(B44+C44)</f>
+        <v>0.28571428571428575</v>
+      </c>
+      <c r="E44">
+        <f>C26+D26+E26</f>
+        <v>6</v>
+      </c>
+      <c r="G44">
+        <v>7</v>
+      </c>
+      <c r="H44">
+        <f>J26/(J26+I26)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I44">
+        <f>J26/(J26+K26)</f>
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <f>(2*H44*I44)/(H44+I44)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <f>D27/(D27+C27)</f>
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <f>D27/(D27+E27)</f>
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f>C27+D27+E27</f>
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>8</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <f>D28/(D28+C28)</f>
+        <v>0.1</v>
+      </c>
+      <c r="C46">
+        <f>D28/(D28+E28)</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="D46">
+        <f>(2*B46*C46)/(B46+C46)</f>
+        <v>4.4444444444444439E-2</v>
+      </c>
+      <c r="E46">
+        <f>C28+D28+E28</f>
+        <v>44</v>
+      </c>
+      <c r="G46">
+        <v>9</v>
+      </c>
+      <c r="H46">
+        <f>J28/(J28+I28)</f>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="I46">
+        <f>J28/(J28+K28)</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="J46">
+        <f>(2*H46*I46)/(H46+I46)</f>
+        <v>0.34042553191489361</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <f>D29/(D29+E29)</f>
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f>C29+D29+E29</f>
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>10</v>
+      </c>
+      <c r="H47">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f>J29/(J29+K29)</f>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>11</v>
+      </c>
+      <c r="B48">
+        <f>D30/(D30+C30)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="C48">
+        <f>D30/(D30+E30)</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D48">
+        <f>(2*B48*C48)/(B48+C48)</f>
+        <v>0.08</v>
+      </c>
+      <c r="E48">
+        <f>C30+D30+E30</f>
+        <v>24</v>
+      </c>
+      <c r="G48">
+        <v>11</v>
+      </c>
+      <c r="H48">
+        <f>J30/(J30+I30)</f>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f>J30/(J30+K30)</f>
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>12</v>
+      </c>
+      <c r="B49">
+        <f>D31/(D31+C31)</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="C49">
+        <f>D31/(D31+E31)</f>
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="D49">
+        <f>(2*B49*C49)/(B49+C49)</f>
+        <v>0.21276595744680848</v>
+      </c>
+      <c r="E49">
+        <f>C31+D31+E31</f>
+        <v>42</v>
+      </c>
+      <c r="G49">
+        <v>12</v>
+      </c>
+      <c r="H49">
+        <f>J31/(J31+I31)</f>
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <f>J31/(J31+K31)</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="J49">
+        <f>(2*H49*I49)/(H49+I49)</f>
+        <v>7.407407407407407E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>13</v>
+      </c>
+      <c r="B50">
+        <f>D32/(D32+C32)</f>
+        <v>0.3</v>
+      </c>
+      <c r="C50">
+        <f>D32/(D32+E32)</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="D50">
+        <f>(2*B50*C50)/(B50+C50)</f>
+        <v>0.28571428571428564</v>
+      </c>
+      <c r="E50">
+        <f>C32+D32+E32</f>
+        <v>18</v>
+      </c>
+      <c r="G50">
+        <v>13</v>
+      </c>
+      <c r="H50">
+        <f>J32/(J32+I32)</f>
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <f>J32/(J32+K32)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J50">
+        <f>(2*H50*I50)/(H50+I50)</f>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>14</v>
+      </c>
+      <c r="B51">
+        <f>D33/(D33+C33)</f>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="C51">
+        <f>D33/(D33+E33)</f>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="D51">
+        <f>(2*B51*C51)/(B51+C51)</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="E51">
+        <f>C33+D33+E33</f>
+        <v>26</v>
+      </c>
+      <c r="G51">
+        <v>14</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f>J33/(J33+K33)</f>
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>15</v>
+      </c>
+      <c r="B52">
+        <f>D34/(D34+C34)</f>
+        <v>0.26229508196721313</v>
+      </c>
+      <c r="C52">
+        <f>D34/(D34+E34)</f>
+        <v>0.38095238095238093</v>
+      </c>
+      <c r="D52">
+        <f>(2*B52*C52)/(B52+C52)</f>
+        <v>0.31067961165048541</v>
+      </c>
+      <c r="E52">
+        <f>C34+D34+E34</f>
+        <v>87</v>
+      </c>
+      <c r="G52">
+        <v>15</v>
+      </c>
+      <c r="H52">
+        <f>J34/(J34+I34)</f>
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <f>J34/(J34+K34)</f>
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="J52">
+        <f>(2*H52*I52)/(H52+I52)</f>
+        <v>4.1666666666666671E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <f>D35/(D35+C35)</f>
+        <v>0.25679758308157102</v>
+      </c>
+      <c r="C53">
+        <f>D35/(D35+E35)</f>
+        <v>0.30035335689045939</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ref="D39:D53" si="3">(2*B53*C53)/(B53+C53)</f>
+        <v>0.27687296416938112</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ref="E39:E53" si="4">C35+D35+E35</f>
+        <v>529</v>
+      </c>
+      <c r="H53">
+        <f>J35/(J35+I35)</f>
+        <v>0.49180327868852458</v>
+      </c>
+      <c r="I53">
+        <f>J35/(J35+K35)</f>
+        <v>0.10135135135135136</v>
+      </c>
+      <c r="J53">
+        <f t="shared" ref="J39:J53" si="5">(2*H53*I53)/(H53+I53)</f>
+        <v>0.16806722689075632</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" t="e">
+        <f>D20/(D20+C20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C54" t="e">
+        <f>D20/(D20+E20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D54" t="e">
+        <f>(2*B54*C54)/(B54+C54)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E54">
+        <f>C20+D20+E20</f>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54" t="e">
+        <f>J20/(J20+I20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I54" t="e">
+        <f>J20/(J20+K20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J54" t="e">
+        <f>(2*H54*I54)/(H54+I54)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="95" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E95" t="s">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>3.1</v>
+      </c>
+      <c r="G95">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="96" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E98">
+        <v>3</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E99">
+        <v>4</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E100">
+        <v>5</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E101">
+        <v>6</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E102">
+        <v>7</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E103">
+        <v>8</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E104">
+        <v>9</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E105">
+        <v>10</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E106">
+        <v>11</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E107">
+        <v>12</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E108">
+        <v>13</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E109">
+        <v>14</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E110">
+        <v>15</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E111" t="s">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <f>SUM(F96:F110)</f>
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <f>SUM(G96:G110)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F5F580-9E8B-407A-9EC7-2EF8788CC5C6}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.25679758308157102</v>
+      </c>
+      <c r="C2">
+        <v>0.30035335689045939</v>
+      </c>
+      <c r="D2">
+        <v>0.27687296416938112</v>
+      </c>
+      <c r="E2">
+        <v>529</v>
+      </c>
+      <c r="H2">
+        <v>0.49180327868852458</v>
+      </c>
+      <c r="I2">
+        <v>0.10135135135135136</v>
+      </c>
+      <c r="J2">
+        <v>0.16806722689075632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.28125</v>
+      </c>
+      <c r="C3">
+        <v>0.36986301369863012</v>
+      </c>
+      <c r="D3">
+        <v>0.31952662721893493</v>
+      </c>
+      <c r="E3">
+        <v>142</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>0.75</v>
+      </c>
+      <c r="I3">
+        <v>3.614457831325301E-2</v>
+      </c>
+      <c r="J3">
+        <v>6.8965517241379296E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>0.26229508196721313</v>
+      </c>
+      <c r="C4">
+        <v>0.38095238095238093</v>
+      </c>
+      <c r="D4">
+        <v>0.31067961165048541</v>
+      </c>
+      <c r="E4">
+        <v>87</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="J4">
+        <v>4.1666666666666671E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="C5">
+        <v>0.52173913043478259</v>
+      </c>
+      <c r="D5">
+        <v>0.2696629213483146</v>
+      </c>
+      <c r="E5">
+        <v>77</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I5">
+        <v>0.3125</v>
+      </c>
+      <c r="J5">
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6">
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="D6">
+        <v>4.4444444444444439E-2</v>
+      </c>
+      <c r="E6">
+        <v>44</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="I6">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="J6">
+        <v>0.34042553191489361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="C7">
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="D7">
+        <v>0.21276595744680848</v>
+      </c>
+      <c r="E7">
+        <v>42</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="J7">
+        <v>7.407407407407407E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>0.38095238095238093</v>
+      </c>
+      <c r="C8">
+        <v>0.29629629629629628</v>
+      </c>
+      <c r="D8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>0.375</v>
+      </c>
+      <c r="I8">
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="J8">
+        <v>0.339622641509434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="C9">
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="D9">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="E9">
+        <v>26</v>
+      </c>
+      <c r="G9">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D10">
+        <v>0.08</v>
+      </c>
+      <c r="E10">
+        <v>24</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0.3</v>
+      </c>
+      <c r="C11">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="D11">
+        <v>0.28571428571428564</v>
+      </c>
+      <c r="E11">
+        <v>18</v>
+      </c>
+      <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0.1</v>
+      </c>
+      <c r="J11">
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>0.7</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+      <c r="D12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J12">
+        <v>0.11764705882352941</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0.2</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+      <c r="D13">
+        <v>0.28571428571428575</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:J16">
+    <sortCondition descending="1" ref="E1:E16"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BB7E46-B234-4252-A735-01CC0701FEDC}">
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E17" sqref="E17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B1">
         <v>1.1000000000000001</v>
@@ -424,10 +8330,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H1">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="I1">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -464,10 +8370,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -479,13 +8385,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -493,28 +8399,28 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -522,28 +8428,28 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -566,7 +8472,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -580,28 +8486,28 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -609,13 +8515,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -630,7 +8536,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -644,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -659,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -667,28 +8573,28 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -717,7 +8623,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -725,13 +8631,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -740,13 +8646,13 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -757,25 +8663,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -783,13 +8689,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -798,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -812,13 +8718,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -827,13 +8733,13 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -841,213 +8747,61 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
+      <c r="A17" t="s">
+        <v>0</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <f t="shared" ref="B22:I22" si="0">SUM(B2:B21)</f>
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/error_analysis_results_sopalign.xlsx
+++ b/error_analysis_results_sopalign.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukev\Documents\SOPalign_repo\SOPlijner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3FE2A7-5AA4-491F-9E4F-1BCB81035C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D410F7-2256-451F-96D0-DC43DB265411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{70D0BE6E-C648-47E2-BE01-B78C6F84B69A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{70D0BE6E-C648-47E2-BE01-B78C6F84B69A}"/>
   </bookViews>
   <sheets>
     <sheet name="EA results" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -830,7 +829,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Performance comparison'!$D$3:$D$16</c:f>
+              <c:f>'Performance comparison'!$B$3:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -890,7 +889,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Friso</c:v>
+            <c:v>Medical student</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -968,7 +967,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Performance comparison'!$J$3:$J$16</c:f>
+              <c:f>'Performance comparison'!$H$3:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1299,12 +1298,7 @@
       <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1353,121 +1347,6 @@
           <c:order val="0"/>
           <c:tx>
             <c:v>SOPalign</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-NL"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Performance comparison'!$H$1:$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>F1-score</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Performance comparison'!$B$2:$D$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.25679758308157102</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.30035335689045939</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.27687296416938112</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4889-443D-B60E-9CE29A8F638C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Friso</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1539,17 +1418,132 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance comparison'!$H$1:$J$1</c:f>
+              <c:f>'Performance comparison'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>F1-score</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Precision</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Performance comparison'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.27687296416938112</c:v>
+                </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.25679758308157102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30035335689045939</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4889-443D-B60E-9CE29A8F638C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Medical student</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Performance comparison'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>F1-score</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>F1-score</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1561,13 +1555,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>0.16806722689075632</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.49180327868852458</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.10135135135135136</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.16806722689075632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1598,6 +1592,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>metric</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1667,7 +1717,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1685,7 +1735,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Score</a:t>
+                  <a:t>score</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1699,7 +1749,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1809,12 +1859,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2117,12 +2162,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -5712,7 +5752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61882E4-1BE7-461B-A3CC-858005480773}">
   <dimension ref="A1:T111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E34" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:J17"/>
     </sheetView>
   </sheetViews>
@@ -6651,7 +6691,7 @@
         <v>8</v>
       </c>
       <c r="E23">
-        <f t="shared" ref="E22:E34" si="2">SUM(F5:J5)</f>
+        <f t="shared" ref="E23:E32" si="2">SUM(F5:J5)</f>
         <v>19</v>
       </c>
       <c r="H23">
@@ -7065,7 +7105,7 @@
         <v>0.7</v>
       </c>
       <c r="C39">
-        <f>D21/(D21+E21)</f>
+        <f t="shared" ref="C39:C53" si="3">D21/(D21+E21)</f>
         <v>0.5</v>
       </c>
       <c r="D39">
@@ -7073,7 +7113,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E39">
-        <f>C21+D21+E21</f>
+        <f t="shared" ref="E39:E52" si="4">C21+D21+E21</f>
         <v>17</v>
       </c>
       <c r="G39">
@@ -7084,7 +7124,7 @@
         <v>1</v>
       </c>
       <c r="I39">
-        <f>J21/(J21+K21)</f>
+        <f t="shared" ref="I39:I44" si="5">J21/(J21+K21)</f>
         <v>6.25E-2</v>
       </c>
       <c r="J39">
@@ -7101,7 +7141,7 @@
         <v>0.28125</v>
       </c>
       <c r="C40">
-        <f>D22/(D22+E22)</f>
+        <f t="shared" si="3"/>
         <v>0.36986301369863012</v>
       </c>
       <c r="D40">
@@ -7109,7 +7149,7 @@
         <v>0.31952662721893493</v>
       </c>
       <c r="E40">
-        <f>C22+D22+E22</f>
+        <f t="shared" si="4"/>
         <v>142</v>
       </c>
       <c r="G40">
@@ -7120,7 +7160,7 @@
         <v>0.75</v>
       </c>
       <c r="I40">
-        <f>J22/(J22+K22)</f>
+        <f t="shared" si="5"/>
         <v>3.614457831325301E-2</v>
       </c>
       <c r="J40">
@@ -7137,7 +7177,7 @@
         <v>0.38095238095238093</v>
       </c>
       <c r="C41">
-        <f>D23/(D23+E23)</f>
+        <f t="shared" si="3"/>
         <v>0.29629629629629628</v>
       </c>
       <c r="D41">
@@ -7145,7 +7185,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E41">
-        <f>C23+D23+E23</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="G41">
@@ -7156,7 +7196,7 @@
         <v>0.375</v>
       </c>
       <c r="I41">
-        <f>J23/(J23+K23)</f>
+        <f t="shared" si="5"/>
         <v>0.31034482758620691</v>
       </c>
       <c r="J41">
@@ -7172,14 +7212,14 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <f>D24/(D24+E24)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <f>C24+D24+E24</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G42">
@@ -7189,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <f>J24/(J24+K24)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J42">
@@ -7205,7 +7245,7 @@
         <v>0.18181818181818182</v>
       </c>
       <c r="C43">
-        <f>D25/(D25+E25)</f>
+        <f t="shared" si="3"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="D43">
@@ -7213,7 +7253,7 @@
         <v>0.2696629213483146</v>
       </c>
       <c r="E43">
-        <f>C25+D25+E25</f>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="G43">
@@ -7224,7 +7264,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="I43">
-        <f>J25/(J25+K25)</f>
+        <f t="shared" si="5"/>
         <v>0.3125</v>
       </c>
       <c r="J43">
@@ -7241,7 +7281,7 @@
         <v>0.2</v>
       </c>
       <c r="C44">
-        <f>D26/(D26+E26)</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="D44">
@@ -7249,7 +7289,7 @@
         <v>0.28571428571428575</v>
       </c>
       <c r="E44">
-        <f>C26+D26+E26</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="G44">
@@ -7260,7 +7300,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="I44">
-        <f>J26/(J26+K26)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J44">
@@ -7277,7 +7317,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <f>D27/(D27+E27)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D45">
@@ -7285,7 +7325,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <f>C27+D27+E27</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G45">
@@ -7310,7 +7350,7 @@
         <v>0.1</v>
       </c>
       <c r="C46">
-        <f>D28/(D28+E28)</f>
+        <f t="shared" si="3"/>
         <v>2.8571428571428571E-2</v>
       </c>
       <c r="D46">
@@ -7318,7 +7358,7 @@
         <v>4.4444444444444439E-2</v>
       </c>
       <c r="E46">
-        <f>C28+D28+E28</f>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="G46">
@@ -7329,7 +7369,7 @@
         <v>0.72727272727272729</v>
       </c>
       <c r="I46">
-        <f>J28/(J28+K28)</f>
+        <f t="shared" ref="I46:I53" si="6">J28/(J28+K28)</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="J46">
@@ -7346,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <f>D29/(D29+E29)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D47">
@@ -7354,7 +7394,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <f>C29+D29+E29</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G47">
@@ -7365,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <f>J29/(J29+K29)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J47">
@@ -7378,11 +7418,11 @@
         <v>11</v>
       </c>
       <c r="B48">
-        <f>D30/(D30+C30)</f>
+        <f t="shared" ref="B48:B53" si="7">D30/(D30+C30)</f>
         <v>6.25E-2</v>
       </c>
       <c r="C48">
-        <f>D30/(D30+E30)</f>
+        <f t="shared" si="3"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="D48">
@@ -7390,7 +7430,7 @@
         <v>0.08</v>
       </c>
       <c r="E48">
-        <f>C30+D30+E30</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="G48">
@@ -7401,7 +7441,7 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <f>J30/(J30+K30)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J48">
@@ -7414,11 +7454,11 @@
         <v>12</v>
       </c>
       <c r="B49">
-        <f>D31/(D31+C31)</f>
+        <f t="shared" si="7"/>
         <v>0.23809523809523808</v>
       </c>
       <c r="C49">
-        <f>D31/(D31+E31)</f>
+        <f t="shared" si="3"/>
         <v>0.19230769230769232</v>
       </c>
       <c r="D49">
@@ -7426,7 +7466,7 @@
         <v>0.21276595744680848</v>
       </c>
       <c r="E49">
-        <f>C31+D31+E31</f>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="G49">
@@ -7437,7 +7477,7 @@
         <v>1</v>
       </c>
       <c r="I49">
-        <f>J31/(J31+K31)</f>
+        <f t="shared" si="6"/>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="J49">
@@ -7450,11 +7490,11 @@
         <v>13</v>
       </c>
       <c r="B50">
-        <f>D32/(D32+C32)</f>
+        <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
       <c r="C50">
-        <f>D32/(D32+E32)</f>
+        <f t="shared" si="3"/>
         <v>0.27272727272727271</v>
       </c>
       <c r="D50">
@@ -7462,7 +7502,7 @@
         <v>0.28571428571428564</v>
       </c>
       <c r="E50">
-        <f>C32+D32+E32</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="G50">
@@ -7473,7 +7513,7 @@
         <v>1</v>
       </c>
       <c r="I50">
-        <f>J32/(J32+K32)</f>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="J50">
@@ -7486,11 +7526,11 @@
         <v>14</v>
       </c>
       <c r="B51">
-        <f>D33/(D33+C33)</f>
+        <f t="shared" si="7"/>
         <v>0.30769230769230771</v>
       </c>
       <c r="C51">
-        <f>D33/(D33+E33)</f>
+        <f t="shared" si="3"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="D51">
@@ -7498,7 +7538,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="E51">
-        <f>C33+D33+E33</f>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="G51">
@@ -7508,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <f>J33/(J33+K33)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J51">
@@ -7521,11 +7561,11 @@
         <v>15</v>
       </c>
       <c r="B52">
-        <f>D34/(D34+C34)</f>
+        <f t="shared" si="7"/>
         <v>0.26229508196721313</v>
       </c>
       <c r="C52">
-        <f>D34/(D34+E34)</f>
+        <f t="shared" si="3"/>
         <v>0.38095238095238093</v>
       </c>
       <c r="D52">
@@ -7533,7 +7573,7 @@
         <v>0.31067961165048541</v>
       </c>
       <c r="E52">
-        <f>C34+D34+E34</f>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="G52">
@@ -7544,7 +7584,7 @@
         <v>1</v>
       </c>
       <c r="I52">
-        <f>J34/(J34+K34)</f>
+        <f t="shared" si="6"/>
         <v>2.1276595744680851E-2</v>
       </c>
       <c r="J52">
@@ -7557,19 +7597,19 @@
         <v>0</v>
       </c>
       <c r="B53">
-        <f>D35/(D35+C35)</f>
+        <f t="shared" si="7"/>
         <v>0.25679758308157102</v>
       </c>
       <c r="C53">
-        <f>D35/(D35+E35)</f>
+        <f t="shared" si="3"/>
         <v>0.30035335689045939</v>
       </c>
       <c r="D53">
-        <f t="shared" ref="D39:D53" si="3">(2*B53*C53)/(B53+C53)</f>
+        <f t="shared" ref="D53" si="8">(2*B53*C53)/(B53+C53)</f>
         <v>0.27687296416938112</v>
       </c>
       <c r="E53">
-        <f t="shared" ref="E39:E53" si="4">C35+D35+E35</f>
+        <f t="shared" ref="E53" si="9">C35+D35+E35</f>
         <v>529</v>
       </c>
       <c r="H53">
@@ -7577,11 +7617,11 @@
         <v>0.49180327868852458</v>
       </c>
       <c r="I53">
-        <f>J35/(J35+K35)</f>
+        <f t="shared" si="6"/>
         <v>0.10135135135135136</v>
       </c>
       <c r="J53">
-        <f t="shared" ref="J39:J53" si="5">(2*H53*I53)/(H53+I53)</f>
+        <f t="shared" ref="J53" si="10">(2*H53*I53)/(H53+I53)</f>
         <v>0.16806722689075632</v>
       </c>
     </row>
@@ -7820,8 +7860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F5F580-9E8B-407A-9EC7-2EF8788CC5C6}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7831,13 +7871,13 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
       </c>
       <c r="E1" t="s">
         <v>31</v>
@@ -7846,13 +7886,13 @@
         <v>14</v>
       </c>
       <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -7860,25 +7900,25 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0.27687296416938112</v>
+      </c>
+      <c r="C2">
         <v>0.25679758308157102</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.30035335689045939</v>
-      </c>
-      <c r="D2">
-        <v>0.27687296416938112</v>
       </c>
       <c r="E2">
         <v>529</v>
       </c>
       <c r="H2">
+        <v>0.16806722689075632</v>
+      </c>
+      <c r="I2">
         <v>0.49180327868852458</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.10135135135135136</v>
-      </c>
-      <c r="J2">
-        <v>0.16806722689075632</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -7886,13 +7926,13 @@
         <v>3</v>
       </c>
       <c r="B3">
+        <v>0.31952662721893493</v>
+      </c>
+      <c r="C3">
         <v>0.28125</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.36986301369863012</v>
-      </c>
-      <c r="D3">
-        <v>0.31952662721893493</v>
       </c>
       <c r="E3">
         <v>142</v>
@@ -7901,13 +7941,13 @@
         <v>3</v>
       </c>
       <c r="H3">
+        <v>6.8965517241379296E-2</v>
+      </c>
+      <c r="I3">
         <v>0.75</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>3.614457831325301E-2</v>
-      </c>
-      <c r="J3">
-        <v>6.8965517241379296E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -7915,13 +7955,13 @@
         <v>15</v>
       </c>
       <c r="B4">
+        <v>0.31067961165048541</v>
+      </c>
+      <c r="C4">
         <v>0.26229508196721313</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.38095238095238093</v>
-      </c>
-      <c r="D4">
-        <v>0.31067961165048541</v>
       </c>
       <c r="E4">
         <v>87</v>
@@ -7930,13 +7970,13 @@
         <v>15</v>
       </c>
       <c r="H4">
+        <v>4.1666666666666671E-2</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2.1276595744680851E-2</v>
-      </c>
-      <c r="J4">
-        <v>4.1666666666666671E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -7944,13 +7984,13 @@
         <v>6</v>
       </c>
       <c r="B5">
+        <v>0.2696629213483146</v>
+      </c>
+      <c r="C5">
         <v>0.18181818181818182</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.52173913043478259</v>
-      </c>
-      <c r="D5">
-        <v>0.2696629213483146</v>
       </c>
       <c r="E5">
         <v>77</v>
@@ -7959,13 +7999,13 @@
         <v>6</v>
       </c>
       <c r="H5">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="I5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.3125</v>
-      </c>
-      <c r="J5">
-        <v>0.35714285714285715</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -7973,13 +8013,13 @@
         <v>9</v>
       </c>
       <c r="B6">
+        <v>4.4444444444444439E-2</v>
+      </c>
+      <c r="C6">
         <v>0.1</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>2.8571428571428571E-2</v>
-      </c>
-      <c r="D6">
-        <v>4.4444444444444439E-2</v>
       </c>
       <c r="E6">
         <v>44</v>
@@ -7988,13 +8028,13 @@
         <v>9</v>
       </c>
       <c r="H6">
+        <v>0.34042553191489361</v>
+      </c>
+      <c r="I6">
         <v>0.72727272727272729</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.22222222222222221</v>
-      </c>
-      <c r="J6">
-        <v>0.34042553191489361</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -8002,13 +8042,13 @@
         <v>12</v>
       </c>
       <c r="B7">
+        <v>0.21276595744680848</v>
+      </c>
+      <c r="C7">
         <v>0.23809523809523808</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.19230769230769232</v>
-      </c>
-      <c r="D7">
-        <v>0.21276595744680848</v>
       </c>
       <c r="E7">
         <v>42</v>
@@ -8017,13 +8057,13 @@
         <v>12</v>
       </c>
       <c r="H7">
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>3.8461538461538464E-2</v>
-      </c>
-      <c r="J7">
-        <v>7.407407407407407E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -8031,13 +8071,13 @@
         <v>4</v>
       </c>
       <c r="B8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C8">
         <v>0.38095238095238093</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.29629629629629628</v>
-      </c>
-      <c r="D8">
-        <v>0.33333333333333331</v>
       </c>
       <c r="E8">
         <v>40</v>
@@ -8046,13 +8086,13 @@
         <v>4</v>
       </c>
       <c r="H8">
+        <v>0.339622641509434</v>
+      </c>
+      <c r="I8">
         <v>0.375</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.31034482758620691</v>
-      </c>
-      <c r="J8">
-        <v>0.339622641509434</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -8060,13 +8100,13 @@
         <v>14</v>
       </c>
       <c r="B9">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="C9">
         <v>0.30769230769230771</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.23529411764705882</v>
-      </c>
-      <c r="D9">
-        <v>0.26666666666666666</v>
       </c>
       <c r="E9">
         <v>26</v>
@@ -8089,13 +8129,13 @@
         <v>11</v>
       </c>
       <c r="B10">
+        <v>0.08</v>
+      </c>
+      <c r="C10">
         <v>6.25E-2</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.1111111111111111</v>
-      </c>
-      <c r="D10">
-        <v>0.08</v>
       </c>
       <c r="E10">
         <v>24</v>
@@ -8118,13 +8158,13 @@
         <v>13</v>
       </c>
       <c r="B11">
+        <v>0.28571428571428564</v>
+      </c>
+      <c r="C11">
         <v>0.3</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.27272727272727271</v>
-      </c>
-      <c r="D11">
-        <v>0.28571428571428564</v>
       </c>
       <c r="E11">
         <v>18</v>
@@ -8133,13 +8173,13 @@
         <v>13</v>
       </c>
       <c r="H11">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I11">
         <v>1</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.1</v>
-      </c>
-      <c r="J11">
-        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -8147,13 +8187,13 @@
         <v>2</v>
       </c>
       <c r="B12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C12">
         <v>0.7</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.5</v>
-      </c>
-      <c r="D12">
-        <v>0.58333333333333337</v>
       </c>
       <c r="E12">
         <v>17</v>
@@ -8162,13 +8202,13 @@
         <v>2</v>
       </c>
       <c r="H12">
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="I12">
         <v>1</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>6.25E-2</v>
-      </c>
-      <c r="J12">
-        <v>0.11764705882352941</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -8176,13 +8216,13 @@
         <v>7</v>
       </c>
       <c r="B13">
+        <v>0.28571428571428575</v>
+      </c>
+      <c r="C13">
         <v>0.2</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.5</v>
-      </c>
-      <c r="D13">
-        <v>0.28571428571428575</v>
       </c>
       <c r="E13">
         <v>6</v>
@@ -8191,13 +8231,13 @@
         <v>7</v>
       </c>
       <c r="H13">
+        <v>0.5</v>
+      </c>
+      <c r="I13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -8301,7 +8341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BB7E46-B234-4252-A735-01CC0701FEDC}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17:I17"/>
     </sheetView>
   </sheetViews>
